--- a/Code/Results/Cases/Case_4_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.25605154656385</v>
+        <v>18.77806223785356</v>
       </c>
       <c r="C2">
-        <v>10.70994970389809</v>
+        <v>9.118208071589756</v>
       </c>
       <c r="D2">
-        <v>9.188111901417674</v>
+        <v>13.73534553838044</v>
       </c>
       <c r="E2">
-        <v>8.397974406469576</v>
+        <v>14.30143610778043</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>28.30468453778791</v>
+        <v>37.65641753112325</v>
       </c>
       <c r="H2">
-        <v>10.00435462270232</v>
+        <v>16.50213586671763</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.033106706377036</v>
+        <v>8.622590987332289</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.050425582208394</v>
+        <v>12.10615681576139</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.40641309044176</v>
+        <v>18.38103329126546</v>
       </c>
       <c r="O2">
-        <v>17.16302619107461</v>
+        <v>26.31447673338139</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91177551211017</v>
+        <v>18.37540876974513</v>
       </c>
       <c r="C3">
-        <v>10.29487136360195</v>
+        <v>8.955632715450889</v>
       </c>
       <c r="D3">
-        <v>9.000011859877532</v>
+        <v>13.74120235424087</v>
       </c>
       <c r="E3">
-        <v>8.415900850600476</v>
+        <v>14.33759399625431</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.57910500442446</v>
+        <v>37.68035254349111</v>
       </c>
       <c r="H3">
-        <v>9.995459698371914</v>
+        <v>16.54806836554743</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.064162358416422</v>
+        <v>8.63428026953096</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.833417201763658</v>
+        <v>12.09176867000322</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.55767384756273</v>
+        <v>18.43305416490738</v>
       </c>
       <c r="O3">
-        <v>16.99062191476265</v>
+        <v>26.37728779235091</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.0432188963335</v>
+        <v>18.12638732429583</v>
       </c>
       <c r="C4">
-        <v>10.0309983262014</v>
+        <v>8.853643172513721</v>
       </c>
       <c r="D4">
-        <v>8.88824853680407</v>
+        <v>13.74732898205941</v>
       </c>
       <c r="E4">
-        <v>8.43127877126159</v>
+        <v>14.36172259637784</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.15529410578195</v>
+        <v>37.70639222210352</v>
       </c>
       <c r="H4">
-        <v>9.997152021109198</v>
+        <v>16.5791071620191</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.083841770074152</v>
+        <v>8.641834108977175</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.700308705939829</v>
+        <v>12.08455082420719</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.65402635795561</v>
+        <v>18.46683938570733</v>
       </c>
       <c r="O4">
-        <v>16.89931293685207</v>
+        <v>26.42166251281349</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67854120071318</v>
+        <v>18.02459886444669</v>
       </c>
       <c r="C5">
-        <v>9.921305765300348</v>
+        <v>8.811571893275854</v>
       </c>
       <c r="D5">
-        <v>8.843681826340243</v>
+        <v>13.75046254513692</v>
       </c>
       <c r="E5">
-        <v>8.438615704753371</v>
+        <v>14.37204013796593</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.98815993645061</v>
+        <v>37.7198502337235</v>
       </c>
       <c r="H5">
-        <v>9.999580394913611</v>
+        <v>16.59246827803063</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.092017522081894</v>
+        <v>8.645007330817153</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.646170026672218</v>
+        <v>12.08201849231016</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.69416195564737</v>
+        <v>18.4810718627603</v>
       </c>
       <c r="O5">
-        <v>16.86567816678732</v>
+        <v>26.44120301530852</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.6173428041111</v>
+        <v>18.00768241322013</v>
       </c>
       <c r="C6">
-        <v>9.902964132815619</v>
+        <v>8.804556263166424</v>
       </c>
       <c r="D6">
-        <v>8.836341728353078</v>
+        <v>13.75102135152952</v>
       </c>
       <c r="E6">
-        <v>8.439897805299461</v>
+        <v>14.37378265444698</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.96074697686968</v>
+        <v>37.72225665111556</v>
       </c>
       <c r="H6">
-        <v>10.00008687379436</v>
+        <v>16.59472989967133</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.093384608693162</v>
+        <v>8.64553998609555</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.637188734549167</v>
+        <v>12.08162277228917</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.70087897861817</v>
+        <v>18.48346325231411</v>
       </c>
       <c r="O6">
-        <v>16.86030639266545</v>
+        <v>26.44453562974782</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.03834399651629</v>
+        <v>18.12501563718129</v>
       </c>
       <c r="C7">
-        <v>10.02952758040702</v>
+        <v>8.85307780065102</v>
       </c>
       <c r="D7">
-        <v>8.887643484830106</v>
+        <v>13.74736866293991</v>
       </c>
       <c r="E7">
-        <v>8.431373423873623</v>
+        <v>14.36185977850937</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.15301737545632</v>
+        <v>37.70656220468469</v>
       </c>
       <c r="H7">
-        <v>9.997177810668958</v>
+        <v>16.57928447042048</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.083951395220155</v>
+        <v>8.64187651925228</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.699578056408606</v>
+        <v>12.08451501311151</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.6545641169987</v>
+        <v>18.4670294469006</v>
       </c>
       <c r="O7">
-        <v>16.89884497153056</v>
+        <v>26.42192014610585</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.80156415181627</v>
+        <v>18.63968153096922</v>
       </c>
       <c r="C8">
-        <v>10.56875969030036</v>
+        <v>9.062622761123517</v>
       </c>
       <c r="D8">
-        <v>9.12250493632432</v>
+        <v>13.73684018189271</v>
       </c>
       <c r="E8">
-        <v>8.403230786594069</v>
+        <v>14.31350344765877</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>28.05007649202076</v>
+        <v>37.66231305062341</v>
       </c>
       <c r="H8">
-        <v>9.999766823437012</v>
+        <v>16.51738442115015</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.043689433132558</v>
+        <v>8.626543462243658</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.975613941264124</v>
+        <v>12.10086183433474</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.45784366389222</v>
+        <v>18.3985879183034</v>
       </c>
       <c r="O8">
-        <v>17.10051419534795</v>
+        <v>26.3349266229407</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.96116552325984</v>
+        <v>19.62883398312021</v>
       </c>
       <c r="C9">
-        <v>11.55078777923706</v>
+        <v>9.45486086373235</v>
       </c>
       <c r="D9">
-        <v>9.610877396531095</v>
+        <v>13.73623796224681</v>
       </c>
       <c r="E9">
-        <v>8.384035595068417</v>
+        <v>14.23395942214696</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.97555948899624</v>
+        <v>37.665723810903</v>
       </c>
       <c r="H9">
-        <v>10.064270977345</v>
+        <v>16.41852723169169</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.969463069352951</v>
+        <v>8.599450552884839</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.515111526644635</v>
+        <v>12.1456268877938</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.09987155010758</v>
+        <v>18.27896255355533</v>
       </c>
       <c r="O9">
-        <v>17.61470054566578</v>
+        <v>26.21055112679552</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.13330014878074</v>
+        <v>20.33582688317011</v>
       </c>
       <c r="C10">
-        <v>12.2220105585149</v>
+        <v>9.72977928981898</v>
       </c>
       <c r="D10">
-        <v>9.984253588098859</v>
+        <v>13.74795619910647</v>
       </c>
       <c r="E10">
-        <v>8.393701761839379</v>
+        <v>14.18481949378375</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>31.48346810526943</v>
+        <v>37.72333157879466</v>
       </c>
       <c r="H10">
-        <v>10.15149073703432</v>
+        <v>16.35966487987103</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.917632446516366</v>
+        <v>8.581341184615663</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.906851057216253</v>
+        <v>12.18609539587651</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.85418362294355</v>
+        <v>18.19990548264668</v>
       </c>
       <c r="O10">
-        <v>18.06871205704176</v>
+        <v>26.14751269976016</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.06948895901614</v>
+        <v>20.65172182123362</v>
       </c>
       <c r="C11">
-        <v>12.51577290211276</v>
+        <v>9.851604000841764</v>
       </c>
       <c r="D11">
-        <v>10.15679557826844</v>
+        <v>13.75591004574149</v>
       </c>
       <c r="E11">
-        <v>8.403661222845228</v>
+        <v>14.164480681913</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32.18801465404891</v>
+        <v>37.76148847572623</v>
       </c>
       <c r="H11">
-        <v>10.20057236226153</v>
+        <v>16.33588305277899</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.894599043168279</v>
+        <v>8.573488883142495</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.083418536905787</v>
+        <v>12.20611141358297</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.74628858315911</v>
+        <v>18.1658452835976</v>
       </c>
       <c r="O11">
-        <v>18.29246974733585</v>
+        <v>26.12501769103586</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.4166176817256</v>
+        <v>20.77040970109324</v>
       </c>
       <c r="C12">
-        <v>12.62530448063253</v>
+        <v>9.897242189827983</v>
       </c>
       <c r="D12">
-        <v>10.22248273370722</v>
+        <v>13.75929719790372</v>
       </c>
       <c r="E12">
-        <v>8.40826594487147</v>
+        <v>14.15706841457145</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>32.45735309913299</v>
+        <v>37.77765120001651</v>
       </c>
       <c r="H12">
-        <v>10.2205712206977</v>
+        <v>16.32730865072119</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.885951657981702</v>
+        <v>8.570570602850889</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.149998971794322</v>
+        <v>12.21391824351289</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.70600086145644</v>
+        <v>18.15322033324178</v>
       </c>
       <c r="O12">
-        <v>18.37972203783747</v>
+        <v>26.1173901049682</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.34218443757915</v>
+        <v>20.74489141721633</v>
       </c>
       <c r="C13">
-        <v>12.60179155498982</v>
+        <v>9.887435606519226</v>
       </c>
       <c r="D13">
-        <v>10.20832085920578</v>
+        <v>13.75855106159126</v>
       </c>
       <c r="E13">
-        <v>8.407236636981603</v>
+        <v>14.15865190197806</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>32.39923509483191</v>
+        <v>37.77409415999675</v>
       </c>
       <c r="H13">
-        <v>10.21620032713123</v>
+        <v>16.32913611236419</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.887810754419114</v>
+        <v>8.571196654996093</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.135672893567936</v>
+        <v>12.21222686159106</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.71465196225937</v>
+        <v>18.15592721669702</v>
       </c>
       <c r="O13">
-        <v>18.36081797733311</v>
+        <v>26.11899319780495</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.09819498618712</v>
+        <v>20.66150569217334</v>
       </c>
       <c r="C14">
-        <v>12.52481862200871</v>
+        <v>9.855368744451985</v>
       </c>
       <c r="D14">
-        <v>10.1621929041115</v>
+        <v>13.75618120159215</v>
       </c>
       <c r="E14">
-        <v>8.404023162397603</v>
+        <v>14.16386506729855</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>32.21012303562466</v>
+        <v>37.76278388702309</v>
       </c>
       <c r="H14">
-        <v>10.20218902526054</v>
+        <v>16.33516898527388</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.893886137611578</v>
+        <v>8.573247689301459</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.088902042269959</v>
+        <v>12.20674915550038</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.74296258325883</v>
+        <v>18.16480115623398</v>
       </c>
       <c r="O14">
-        <v>18.29959730918961</v>
+        <v>26.12437230268772</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.94778505921091</v>
+        <v>20.61030460669577</v>
       </c>
       <c r="C15">
-        <v>12.47744663753054</v>
+        <v>9.835661686313783</v>
       </c>
       <c r="D15">
-        <v>10.13398262234278</v>
+        <v>13.75477839237199</v>
       </c>
       <c r="E15">
-        <v>8.40216433640062</v>
+        <v>14.16709599037062</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32.09461387291269</v>
+        <v>37.75607898724146</v>
       </c>
       <c r="H15">
-        <v>10.19379244971935</v>
+        <v>16.33892047352653</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.8976171292719</v>
+        <v>8.574511190291743</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.060215566707058</v>
+        <v>12.2034233728624</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.76037829810898</v>
+        <v>18.17027221836301</v>
       </c>
       <c r="O15">
-        <v>18.26242727111764</v>
+        <v>26.12778321646644</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.07107996499554</v>
+        <v>20.3150575456367</v>
       </c>
       <c r="C16">
-        <v>12.20257544887121</v>
+        <v>9.721750127022375</v>
       </c>
       <c r="D16">
-        <v>9.973028412560897</v>
+        <v>13.74748901602169</v>
       </c>
       <c r="E16">
-        <v>8.393165662349574</v>
+        <v>14.18618921836721</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>31.43778681770628</v>
+        <v>37.72107803981824</v>
       </c>
       <c r="H16">
-        <v>10.14847756295003</v>
+        <v>16.36127939577237</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.91914840188422</v>
+        <v>8.581862091383327</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.895274909801049</v>
+        <v>12.18481930896453</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.86131376860373</v>
+        <v>18.20216962812954</v>
       </c>
       <c r="O16">
-        <v>18.05443938776382</v>
+        <v>26.14910735893606</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.5200066506117</v>
+        <v>20.13238583235258</v>
       </c>
       <c r="C17">
-        <v>12.03095018771913</v>
+        <v>9.651019008425092</v>
       </c>
       <c r="D17">
-        <v>9.874949591145961</v>
+        <v>13.74368773335189</v>
       </c>
       <c r="E17">
-        <v>8.389093539173755</v>
+        <v>14.19841830694765</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>31.03950773708254</v>
+        <v>37.70266411643505</v>
       </c>
       <c r="H17">
-        <v>10.12313035756959</v>
+        <v>16.37576338403268</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.93249423129367</v>
+        <v>8.586470247771274</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.793634954429999</v>
+        <v>12.1738151611223</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.92423423968908</v>
+        <v>18.2222245650945</v>
       </c>
       <c r="O17">
-        <v>17.93128976839408</v>
+        <v>26.1637737178136</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.19815118163064</v>
+        <v>20.02678575734125</v>
       </c>
       <c r="C18">
-        <v>11.93114793784868</v>
+        <v>9.610033257290654</v>
       </c>
       <c r="D18">
-        <v>9.818792633982742</v>
+        <v>13.74174837747356</v>
       </c>
       <c r="E18">
-        <v>8.387272879936724</v>
+        <v>14.20564184584129</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>30.81218506143399</v>
+        <v>37.69319821613213</v>
       </c>
       <c r="H18">
-        <v>10.10943300390249</v>
+        <v>16.38437605775907</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.940221877614357</v>
+        <v>8.589157060213667</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.735022678229283</v>
+        <v>12.16763733846726</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.96078771844896</v>
+        <v>18.23393882323523</v>
       </c>
       <c r="O18">
-        <v>17.86207652512213</v>
+        <v>26.17279115919172</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.08833372648234</v>
+        <v>19.99094353553745</v>
       </c>
       <c r="C19">
-        <v>11.89717126789137</v>
+        <v>9.596105034762429</v>
       </c>
       <c r="D19">
-        <v>9.799823922292411</v>
+        <v>13.74113423117157</v>
       </c>
       <c r="E19">
-        <v>8.386744996240681</v>
+        <v>14.20812019691654</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>30.73552353594737</v>
+        <v>37.69018661364817</v>
       </c>
       <c r="H19">
-        <v>10.10494489427197</v>
+        <v>16.38734055325778</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.94284726938705</v>
+        <v>8.590073014962906</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.71515303560539</v>
+        <v>12.16557176309961</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.97322612671184</v>
+        <v>18.23793586972069</v>
       </c>
       <c r="O19">
-        <v>17.83891880466696</v>
+        <v>26.1759441607301</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.57917514440379</v>
+        <v>20.15188745931089</v>
       </c>
       <c r="C20">
-        <v>12.04933293970813</v>
+        <v>9.658580038122686</v>
       </c>
       <c r="D20">
-        <v>9.885364102145159</v>
+        <v>13.74406683220125</v>
       </c>
       <c r="E20">
-        <v>8.3894728077987</v>
+        <v>14.19709686861617</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>31.08172439714692</v>
+        <v>37.70450787486264</v>
       </c>
       <c r="H20">
-        <v>10.12573691987456</v>
+        <v>16.37419236216628</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.931068241562119</v>
+        <v>8.58597594422762</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.80447075356849</v>
+        <v>12.17497092183986</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.91749856043263</v>
+        <v>18.22007114314773</v>
       </c>
       <c r="O20">
-        <v>17.94423135059835</v>
+        <v>26.16215223612207</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.17006037723871</v>
+        <v>20.68602432380171</v>
       </c>
       <c r="C21">
-        <v>12.54747415336728</v>
+        <v>9.864801191187226</v>
       </c>
       <c r="D21">
-        <v>10.17573260726709</v>
+        <v>13.75686712131875</v>
       </c>
       <c r="E21">
-        <v>8.404944153540871</v>
+        <v>14.162325976139</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>32.26560180370501</v>
+        <v>37.7660595336741</v>
       </c>
       <c r="H21">
-        <v>10.20626566746342</v>
+        <v>16.333385275542</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.892099646916321</v>
+        <v>8.57264375427285</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.102647764100613</v>
+        <v>12.20835195606847</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.73463148489835</v>
+        <v>18.16218726453684</v>
       </c>
       <c r="O21">
-        <v>18.31751058865535</v>
+        <v>26.12276814019697</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.16678747913059</v>
+        <v>21.0296190191764</v>
       </c>
       <c r="C22">
-        <v>12.86305752940618</v>
+        <v>9.996686076432754</v>
       </c>
       <c r="D22">
-        <v>10.36752608471224</v>
+        <v>13.76741870220813</v>
       </c>
       <c r="E22">
-        <v>8.419928503222552</v>
+        <v>14.14128910196543</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>33.05410318497123</v>
+        <v>37.81627109468639</v>
       </c>
       <c r="H22">
-        <v>10.26715760457197</v>
+        <v>16.30922943554902</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.867066048098785</v>
+        <v>8.564252121724142</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.295863700471607</v>
+        <v>12.23149075612938</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.61844649643539</v>
+        <v>18.12594717407129</v>
       </c>
       <c r="O22">
-        <v>18.57617626595221</v>
+        <v>26.10222116115505</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.63872271438307</v>
+        <v>20.84677389906266</v>
       </c>
       <c r="C23">
-        <v>12.69555039469251</v>
+        <v>9.926570326975369</v>
       </c>
       <c r="D23">
-        <v>10.26498889519476</v>
+        <v>13.76158785060979</v>
       </c>
       <c r="E23">
-        <v>8.411474020605644</v>
+        <v>14.15236249638841</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>32.63195241668508</v>
+        <v>37.78856089518354</v>
       </c>
       <c r="H23">
-        <v>10.23388278158044</v>
+        <v>16.32189165345571</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.880388371707904</v>
+        <v>8.56870153926236</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.192906373672262</v>
+        <v>12.21902146713558</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.68014690940711</v>
+        <v>18.14514392478753</v>
       </c>
       <c r="O23">
-        <v>18.43676282970355</v>
+        <v>26.11271179541851</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.55244076072125</v>
+        <v>20.14307257067903</v>
       </c>
       <c r="C24">
-        <v>12.04102562184765</v>
+        <v>9.655162695791212</v>
       </c>
       <c r="D24">
-        <v>9.880654982835461</v>
+        <v>13.7438946750451</v>
       </c>
       <c r="E24">
-        <v>8.38929972186703</v>
+        <v>14.19769369009385</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>31.06263308532566</v>
+        <v>37.70367082098621</v>
       </c>
       <c r="H24">
-        <v>10.1245557719157</v>
+        <v>16.37490173143903</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.931712760100493</v>
+        <v>8.586199301962298</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.799572439959329</v>
+        <v>12.17444793923342</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.92054257943954</v>
+        <v>18.22104413071792</v>
       </c>
       <c r="O24">
-        <v>17.9383755210863</v>
+        <v>26.1628834841453</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.11469718477874</v>
+        <v>19.36419233370138</v>
       </c>
       <c r="C25">
-        <v>11.29368593965735</v>
+        <v>9.35094926945073</v>
       </c>
       <c r="D25">
-        <v>9.476031115458342</v>
+        <v>13.73426006314632</v>
       </c>
       <c r="E25">
-        <v>8.385188129494406</v>
+        <v>14.25384366370564</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29.43768901735137</v>
+        <v>37.65512566169307</v>
       </c>
       <c r="H25">
-        <v>10.04008413875731</v>
+        <v>16.44285521210665</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.989055102611064</v>
+        <v>8.606463253860813</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.369740034331166</v>
+        <v>12.13217268453631</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.1937046576357</v>
+        <v>18.30976907331365</v>
       </c>
       <c r="O25">
-        <v>17.46245771782257</v>
+        <v>26.23923180891193</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.77806223785356</v>
+        <v>21.25605154656383</v>
       </c>
       <c r="C2">
-        <v>9.118208071589756</v>
+        <v>10.70994970389819</v>
       </c>
       <c r="D2">
-        <v>13.73534553838044</v>
+        <v>9.188111901417582</v>
       </c>
       <c r="E2">
-        <v>14.30143610778043</v>
+        <v>8.397974406469569</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>37.65641753112325</v>
+        <v>28.30468453778772</v>
       </c>
       <c r="H2">
-        <v>16.50213586671763</v>
+        <v>10.00435462270225</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.622590987332289</v>
+        <v>5.033106706377033</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.10615681576139</v>
+        <v>8.050425582208396</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.38103329126546</v>
+        <v>12.40641309044176</v>
       </c>
       <c r="O2">
-        <v>26.31447673338139</v>
+        <v>17.16302619107454</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.37540876974513</v>
+        <v>19.91177551211019</v>
       </c>
       <c r="C3">
-        <v>8.955632715450889</v>
+        <v>10.29487136360195</v>
       </c>
       <c r="D3">
-        <v>13.74120235424087</v>
+        <v>9.00001185987762</v>
       </c>
       <c r="E3">
-        <v>14.33759399625431</v>
+        <v>8.415900850600533</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>37.68035254349111</v>
+        <v>27.57910500442469</v>
       </c>
       <c r="H3">
-        <v>16.54806836554743</v>
+        <v>9.995459698371917</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.63428026953096</v>
+        <v>5.064162358416422</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.09176867000322</v>
+        <v>7.833417201763653</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.43305416490738</v>
+        <v>12.5576738475628</v>
       </c>
       <c r="O3">
-        <v>26.37728779235091</v>
+        <v>16.99062191476274</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.12638732429583</v>
+        <v>19.04321889633351</v>
       </c>
       <c r="C4">
-        <v>8.853643172513721</v>
+        <v>10.03099832620142</v>
       </c>
       <c r="D4">
-        <v>13.74732898205941</v>
+        <v>8.888248536804106</v>
       </c>
       <c r="E4">
-        <v>14.36172259637784</v>
+        <v>8.431278771261528</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>37.70639222210352</v>
+        <v>27.15529410578197</v>
       </c>
       <c r="H4">
-        <v>16.5791071620191</v>
+        <v>9.997152021109148</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.641834108977175</v>
+        <v>5.083841770074053</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.08455082420719</v>
+        <v>7.700308705939814</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.46683938570733</v>
+        <v>12.65402635795554</v>
       </c>
       <c r="O4">
-        <v>26.42166251281349</v>
+        <v>16.89931293685204</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.02459886444669</v>
+        <v>18.67854120071323</v>
       </c>
       <c r="C5">
-        <v>8.811571893275854</v>
+        <v>9.921305765300433</v>
       </c>
       <c r="D5">
-        <v>13.75046254513692</v>
+        <v>8.843681826340259</v>
       </c>
       <c r="E5">
-        <v>14.37204013796593</v>
+        <v>8.438615704753371</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>37.7198502337235</v>
+        <v>26.98815993645085</v>
       </c>
       <c r="H5">
-        <v>16.59246827803063</v>
+        <v>9.999580394913659</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.645007330817153</v>
+        <v>5.092017522081893</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.08201849231016</v>
+        <v>7.646170026672169</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.4810718627603</v>
+        <v>12.69416195564737</v>
       </c>
       <c r="O5">
-        <v>26.44120301530852</v>
+        <v>16.86567816678744</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.00768241322013</v>
+        <v>18.61734280411111</v>
       </c>
       <c r="C6">
-        <v>8.804556263166424</v>
+        <v>9.902964132815436</v>
       </c>
       <c r="D6">
-        <v>13.75102135152952</v>
+        <v>8.836341728352931</v>
       </c>
       <c r="E6">
-        <v>14.37378265444698</v>
+        <v>8.439897805299456</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>37.72225665111556</v>
+        <v>26.96074697686989</v>
       </c>
       <c r="H6">
-        <v>16.59472989967133</v>
+        <v>10.00008687379441</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.64553998609555</v>
+        <v>5.09338460869323</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.08162277228917</v>
+        <v>7.637188734549186</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.48346325231411</v>
+        <v>12.70087897861817</v>
       </c>
       <c r="O6">
-        <v>26.44453562974782</v>
+        <v>16.8603063926656</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.12501563718129</v>
+        <v>19.03834399651629</v>
       </c>
       <c r="C7">
-        <v>8.85307780065102</v>
+        <v>10.02952758040704</v>
       </c>
       <c r="D7">
-        <v>13.74736866293991</v>
+        <v>8.887643484830106</v>
       </c>
       <c r="E7">
-        <v>14.36185977850937</v>
+        <v>8.431373423873739</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.70656220468469</v>
+        <v>27.15301737545631</v>
       </c>
       <c r="H7">
-        <v>16.57928447042048</v>
+        <v>9.997177810668962</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.64187651925228</v>
+        <v>5.083951395220254</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.08451501311151</v>
+        <v>7.699578056408683</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.4670294469006</v>
+        <v>12.6545641169987</v>
       </c>
       <c r="O7">
-        <v>26.42192014610585</v>
+        <v>16.89884497153055</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.63968153096922</v>
+        <v>20.80156415181628</v>
       </c>
       <c r="C8">
-        <v>9.062622761123517</v>
+        <v>10.56875969030046</v>
       </c>
       <c r="D8">
-        <v>13.73684018189271</v>
+        <v>9.122504936324242</v>
       </c>
       <c r="E8">
-        <v>14.31350344765877</v>
+        <v>8.403230786594008</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>37.66231305062341</v>
+        <v>28.05007649202069</v>
       </c>
       <c r="H8">
-        <v>16.51738442115015</v>
+        <v>9.999766823437016</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.626543462243658</v>
+        <v>5.043689433132491</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.10086183433474</v>
+        <v>7.975613941264065</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.3985879183034</v>
+        <v>12.45784366389223</v>
       </c>
       <c r="O8">
-        <v>26.3349266229407</v>
+        <v>17.10051419534794</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.62883398312021</v>
+        <v>23.96116552325979</v>
       </c>
       <c r="C9">
-        <v>9.45486086373235</v>
+        <v>11.55078777923697</v>
       </c>
       <c r="D9">
-        <v>13.73623796224681</v>
+        <v>9.610877396531102</v>
       </c>
       <c r="E9">
-        <v>14.23395942214696</v>
+        <v>8.384035595068521</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>37.665723810903</v>
+        <v>29.97555948899636</v>
       </c>
       <c r="H9">
-        <v>16.41852723169169</v>
+        <v>10.06427097734515</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.599450552884839</v>
+        <v>4.969463069353053</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.1456268877938</v>
+        <v>8.515111526644711</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.27896255355533</v>
+        <v>12.09987155010765</v>
       </c>
       <c r="O9">
-        <v>26.21055112679552</v>
+        <v>17.61470054566593</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.33582688317011</v>
+        <v>26.13330014878072</v>
       </c>
       <c r="C10">
-        <v>9.72977928981898</v>
+        <v>12.22201055851482</v>
       </c>
       <c r="D10">
-        <v>13.74795619910647</v>
+        <v>9.984253588098765</v>
       </c>
       <c r="E10">
-        <v>14.18481949378375</v>
+        <v>8.393701761839274</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>37.72333157879466</v>
+        <v>31.48346810526947</v>
       </c>
       <c r="H10">
-        <v>16.35966487987103</v>
+        <v>10.15149073703431</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.581341184615663</v>
+        <v>4.917632446516333</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.18609539587651</v>
+        <v>8.906851057216224</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.19990548264668</v>
+        <v>11.85418362294359</v>
       </c>
       <c r="O10">
-        <v>26.14751269976016</v>
+        <v>18.06871205704179</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.65172182123362</v>
+        <v>27.06948895901611</v>
       </c>
       <c r="C11">
-        <v>9.851604000841764</v>
+        <v>12.51577290211283</v>
       </c>
       <c r="D11">
-        <v>13.75591004574149</v>
+        <v>10.15679557826843</v>
       </c>
       <c r="E11">
-        <v>14.164480681913</v>
+        <v>8.403661222845228</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>37.76148847572623</v>
+        <v>32.18801465404896</v>
       </c>
       <c r="H11">
-        <v>16.33588305277899</v>
+        <v>10.20057236226148</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.573488883142495</v>
+        <v>4.894599043168314</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.20611141358297</v>
+        <v>9.083418536905757</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.1658452835976</v>
+        <v>11.74628858315911</v>
       </c>
       <c r="O11">
-        <v>26.12501769103586</v>
+        <v>18.29246974733582</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.77040970109324</v>
+        <v>27.41661768172555</v>
       </c>
       <c r="C12">
-        <v>9.897242189827983</v>
+        <v>12.62530448063272</v>
       </c>
       <c r="D12">
-        <v>13.75929719790372</v>
+        <v>10.22248273370733</v>
       </c>
       <c r="E12">
-        <v>14.15706841457145</v>
+        <v>8.408265944871561</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>37.77765120001651</v>
+        <v>32.45735309913304</v>
       </c>
       <c r="H12">
-        <v>16.32730865072119</v>
+        <v>10.22057122069769</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.570570602850889</v>
+        <v>4.885951657981667</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.21391824351289</v>
+        <v>9.149998971794318</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.15322033324178</v>
+        <v>11.70600086145647</v>
       </c>
       <c r="O12">
-        <v>26.1173901049682</v>
+        <v>18.3797220378375</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.74489141721633</v>
+        <v>27.34218443757907</v>
       </c>
       <c r="C13">
-        <v>9.887435606519226</v>
+        <v>12.60179155498981</v>
       </c>
       <c r="D13">
-        <v>13.75855106159126</v>
+        <v>10.20832085920581</v>
       </c>
       <c r="E13">
-        <v>14.15865190197806</v>
+        <v>8.407236636981603</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>37.77409415999675</v>
+        <v>32.39923509483197</v>
       </c>
       <c r="H13">
-        <v>16.32913611236419</v>
+        <v>10.21620032713133</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.571196654996093</v>
+        <v>4.887810754419082</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.21222686159106</v>
+        <v>9.135672893567948</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.15592721669702</v>
+        <v>11.71465196225939</v>
       </c>
       <c r="O13">
-        <v>26.11899319780495</v>
+        <v>18.36081797733323</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.66150569217334</v>
+        <v>27.09819498618713</v>
       </c>
       <c r="C14">
-        <v>9.855368744451985</v>
+        <v>12.52481862200864</v>
       </c>
       <c r="D14">
-        <v>13.75618120159215</v>
+        <v>10.16219290411154</v>
       </c>
       <c r="E14">
-        <v>14.16386506729855</v>
+        <v>8.404023162397703</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>37.76278388702309</v>
+        <v>32.21012303562478</v>
       </c>
       <c r="H14">
-        <v>16.33516898527388</v>
+        <v>10.20218902526058</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.573247689301459</v>
+        <v>4.893886137611577</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.20674915550038</v>
+        <v>9.088902042269991</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.16480115623398</v>
+        <v>11.7429625832589</v>
       </c>
       <c r="O14">
-        <v>26.12437230268772</v>
+        <v>18.29959730918968</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.61030460669577</v>
+        <v>26.94778505921089</v>
       </c>
       <c r="C15">
-        <v>9.835661686313783</v>
+        <v>12.47744663753064</v>
       </c>
       <c r="D15">
-        <v>13.75477839237199</v>
+        <v>10.13398262234273</v>
       </c>
       <c r="E15">
-        <v>14.16709599037062</v>
+        <v>8.402164336400563</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>37.75607898724146</v>
+        <v>32.09461387291265</v>
       </c>
       <c r="H15">
-        <v>16.33892047352653</v>
+        <v>10.19379244971936</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.574511190291743</v>
+        <v>4.897617129271968</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.2034233728624</v>
+        <v>9.060215566707033</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.17027221836301</v>
+        <v>11.76037829810895</v>
       </c>
       <c r="O15">
-        <v>26.12778321646644</v>
+        <v>18.26242727111761</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.3150575456367</v>
+        <v>26.07107996499553</v>
       </c>
       <c r="C16">
-        <v>9.721750127022375</v>
+        <v>12.20257544887105</v>
       </c>
       <c r="D16">
-        <v>13.74748901602169</v>
+        <v>9.973028412560911</v>
       </c>
       <c r="E16">
-        <v>14.18618921836721</v>
+        <v>8.393165662349627</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>37.72107803981824</v>
+        <v>31.43778681770639</v>
       </c>
       <c r="H16">
-        <v>16.36127939577237</v>
+        <v>10.14847756295012</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.581862091383327</v>
+        <v>4.919148401884286</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.18481930896453</v>
+        <v>8.895274909801078</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.20216962812954</v>
+        <v>11.86131376860383</v>
       </c>
       <c r="O16">
-        <v>26.14910735893606</v>
+        <v>18.05443938776391</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.13238583235258</v>
+        <v>25.52000665061167</v>
       </c>
       <c r="C17">
-        <v>9.651019008425092</v>
+        <v>12.03095018771903</v>
       </c>
       <c r="D17">
-        <v>13.74368773335189</v>
+        <v>9.874949591146038</v>
       </c>
       <c r="E17">
-        <v>14.19841830694765</v>
+        <v>8.389093539173846</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>37.70266411643505</v>
+        <v>31.03950773708248</v>
       </c>
       <c r="H17">
-        <v>16.37576338403268</v>
+        <v>10.12313035756971</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.586470247771274</v>
+        <v>4.932494231293738</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.1738151611223</v>
+        <v>8.79363495443001</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.2222245650945</v>
+        <v>11.92423423968912</v>
       </c>
       <c r="O17">
-        <v>26.1637737178136</v>
+        <v>17.93128976839415</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.02678575734125</v>
+        <v>25.19815118163061</v>
       </c>
       <c r="C18">
-        <v>9.610033257290654</v>
+        <v>11.93114793784859</v>
       </c>
       <c r="D18">
-        <v>13.74174837747356</v>
+        <v>9.818792633982703</v>
       </c>
       <c r="E18">
-        <v>14.20564184584129</v>
+        <v>8.387272879936683</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>37.69319821613213</v>
+        <v>30.81218506143398</v>
       </c>
       <c r="H18">
-        <v>16.38437605775907</v>
+        <v>10.10943300390248</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.589157060213667</v>
+        <v>4.940221877614324</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.16763733846726</v>
+        <v>8.735022678229287</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.23393882323523</v>
+        <v>11.9607877184489</v>
       </c>
       <c r="O18">
-        <v>26.17279115919172</v>
+        <v>17.86207652512212</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.99094353553745</v>
+        <v>25.08833372648241</v>
       </c>
       <c r="C19">
-        <v>9.596105034762429</v>
+        <v>11.89717126789152</v>
       </c>
       <c r="D19">
-        <v>13.74113423117157</v>
+        <v>9.799823922292388</v>
       </c>
       <c r="E19">
-        <v>14.20812019691654</v>
+        <v>8.386744996240679</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>37.69018661364817</v>
+        <v>30.73552353594724</v>
       </c>
       <c r="H19">
-        <v>16.38734055325778</v>
+        <v>10.10494489427199</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.590073014962906</v>
+        <v>4.942847269387018</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.16557176309961</v>
+        <v>8.715153035605363</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.23793586972069</v>
+        <v>11.97322612671184</v>
       </c>
       <c r="O19">
-        <v>26.1759441607301</v>
+        <v>17.8389188046669</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.15188745931089</v>
+        <v>25.57917514440379</v>
       </c>
       <c r="C20">
-        <v>9.658580038122686</v>
+        <v>12.04933293970812</v>
       </c>
       <c r="D20">
-        <v>13.74406683220125</v>
+        <v>9.885364102145159</v>
       </c>
       <c r="E20">
-        <v>14.19709686861617</v>
+        <v>8.389472807798693</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>37.70450787486264</v>
+        <v>31.08172439714692</v>
       </c>
       <c r="H20">
-        <v>16.37419236216628</v>
+        <v>10.12573691987451</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.58597594422762</v>
+        <v>4.931068241562118</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.17497092183986</v>
+        <v>8.804470753568475</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.22007114314773</v>
+        <v>11.91749856043263</v>
       </c>
       <c r="O20">
-        <v>26.16215223612207</v>
+        <v>17.94423135059834</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.68602432380171</v>
+        <v>27.17006037723867</v>
       </c>
       <c r="C21">
-        <v>9.864801191187226</v>
+        <v>12.54747415336722</v>
       </c>
       <c r="D21">
-        <v>13.75686712131875</v>
+        <v>10.17573260726701</v>
       </c>
       <c r="E21">
-        <v>14.162325976139</v>
+        <v>8.404944153540772</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>37.7660595336741</v>
+        <v>32.26560180370509</v>
       </c>
       <c r="H21">
-        <v>16.333385275542</v>
+        <v>10.20626566746341</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.57264375427285</v>
+        <v>4.892099646916356</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.20835195606847</v>
+        <v>9.102647764100558</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.16218726453684</v>
+        <v>11.73463148489832</v>
       </c>
       <c r="O21">
-        <v>26.12276814019697</v>
+        <v>18.3175105886554</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.0296190191764</v>
+        <v>28.1667874791306</v>
       </c>
       <c r="C22">
-        <v>9.996686076432754</v>
+        <v>12.86305752940619</v>
       </c>
       <c r="D22">
-        <v>13.76741870220813</v>
+        <v>10.36752608471223</v>
       </c>
       <c r="E22">
-        <v>14.14128910196543</v>
+        <v>8.419928503222581</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>37.81627109468639</v>
+        <v>33.0541031849711</v>
       </c>
       <c r="H22">
-        <v>16.30922943554902</v>
+        <v>10.26715760457196</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.564252121724142</v>
+        <v>4.867066048098818</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.23149075612938</v>
+        <v>9.295863700471608</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.12594717407129</v>
+        <v>11.6184464964354</v>
       </c>
       <c r="O22">
-        <v>26.10222116115505</v>
+        <v>18.57617626595214</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.84677389906266</v>
+        <v>27.63872271438311</v>
       </c>
       <c r="C23">
-        <v>9.926570326975369</v>
+        <v>12.69555039469269</v>
       </c>
       <c r="D23">
-        <v>13.76158785060979</v>
+        <v>10.26498889519476</v>
       </c>
       <c r="E23">
-        <v>14.15236249638841</v>
+        <v>8.4114740206057</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>37.78856089518354</v>
+        <v>32.6319524166851</v>
       </c>
       <c r="H23">
-        <v>16.32189165345571</v>
+        <v>10.2338827815804</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.56870153926236</v>
+        <v>4.880388371707936</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.21902146713558</v>
+        <v>9.192906373672288</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.14514392478753</v>
+        <v>11.68014690940711</v>
       </c>
       <c r="O23">
-        <v>26.11271179541851</v>
+        <v>18.43676282970351</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.14307257067903</v>
+        <v>25.55244076072125</v>
       </c>
       <c r="C24">
-        <v>9.655162695791212</v>
+        <v>12.04102562184754</v>
       </c>
       <c r="D24">
-        <v>13.7438946750451</v>
+        <v>9.880654982835489</v>
       </c>
       <c r="E24">
-        <v>14.19769369009385</v>
+        <v>8.389299721866978</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>37.70367082098621</v>
+        <v>31.06263308532575</v>
       </c>
       <c r="H24">
-        <v>16.37490173143903</v>
+        <v>10.12455577191569</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.586199301962298</v>
+        <v>4.931712760100428</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.17444793923342</v>
+        <v>8.799572439959299</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.22104413071792</v>
+        <v>11.92054257943954</v>
       </c>
       <c r="O24">
-        <v>26.1628834841453</v>
+        <v>17.93837552108631</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.36419233370138</v>
+        <v>23.11469718477877</v>
       </c>
       <c r="C25">
-        <v>9.35094926945073</v>
+        <v>11.29368593965726</v>
       </c>
       <c r="D25">
-        <v>13.73426006314632</v>
+        <v>9.476031115458316</v>
       </c>
       <c r="E25">
-        <v>14.25384366370564</v>
+        <v>8.385188129494416</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.65512566169307</v>
+        <v>29.43768901735136</v>
       </c>
       <c r="H25">
-        <v>16.44285521210665</v>
+        <v>10.04008413875727</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.606463253860813</v>
+        <v>4.989055102611065</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.13217268453631</v>
+        <v>8.369740034331128</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.30976907331365</v>
+        <v>12.19370465763569</v>
       </c>
       <c r="O25">
-        <v>26.23923180891193</v>
+        <v>17.46245771782253</v>
       </c>
     </row>
   </sheetData>
